--- a/sch_pt.xlsx
+++ b/sch_pt.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C16B6CA1-8830-4EAD-9CC4-2C7362C8ED50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6350BD9-DB8C-48A6-9130-3316E6CC5199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="645" yWindow="2625" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3540" yWindow="7455" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sch" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="65">
   <si>
     <t>-</t>
   </si>
@@ -86,21 +86,12 @@
     <t>9Б</t>
   </si>
   <si>
-    <t>9В</t>
-  </si>
-  <si>
     <t>10Б</t>
   </si>
   <si>
     <t>11А</t>
   </si>
   <si>
-    <t>7А</t>
-  </si>
-  <si>
-    <t>8А</t>
-  </si>
-  <si>
     <t>8Б</t>
   </si>
   <si>
@@ -185,9 +176,6 @@
     <t>География</t>
   </si>
   <si>
-    <t>10А</t>
-  </si>
-  <si>
     <t>Англ яз            37</t>
   </si>
   <si>
@@ -210,18 +198,41 @@
   </si>
   <si>
     <t xml:space="preserve">Математика </t>
+  </si>
+  <si>
+    <t>7A</t>
+  </si>
+  <si>
+    <t>8A</t>
+  </si>
+  <si>
+    <t>8Г</t>
+  </si>
+  <si>
+    <t>9B</t>
+  </si>
+  <si>
+    <t>10A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -295,7 +306,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -369,15 +380,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color indexed="64"/>
       </left>
@@ -435,60 +437,54 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -798,7 +794,7 @@
   <dimension ref="A1:V20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T10" sqref="B10:T10"/>
+      <selection activeCell="B1" sqref="B1:V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -807,68 +803,68 @@
       <c r="A1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" s="10" t="s">
+      <c r="G1" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="P1" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q1" s="8" t="s">
+      <c r="P1" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="R1" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="S1" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="T1" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="U1" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="V1" s="16" t="s">
         <v>23</v>
-      </c>
-      <c r="U1" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="V1" s="8" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -896,46 +892,46 @@
       <c r="H2" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" s="13" t="s">
+      <c r="I2" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="M2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="N2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="O2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="P2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="R2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="S2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="T2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="U2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="V2" s="16" t="s">
+      <c r="K2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="R2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="S2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="U2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="V2" s="13" t="s">
         <v>0</v>
       </c>
     </row>
@@ -943,408 +939,408 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="13" t="s">
+      <c r="F3" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="13" t="s">
+      <c r="I3" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="P3" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="L3" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="M3" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="N3" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="O3" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="P3" s="13" t="s">
+      <c r="Q3" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="Q3" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="R3" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="S3" s="13" t="s">
+      <c r="R3" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="S3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="T3" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="U3" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="V3" s="11" t="s">
-        <v>60</v>
+      <c r="T3" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="U3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="V3" s="9" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="H4" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="P4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="N4" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="O4" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="P4" s="12" t="s">
+      <c r="Q4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="Q4" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="R4" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="S4" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="T4" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="U4" s="12" t="s">
+      <c r="R4" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="S4" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="T4" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="U4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="V4" s="17" t="s">
-        <v>59</v>
+      <c r="V4" s="14" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="P5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q5" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="R5" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="S5" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="T5" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="U5" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="K5" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="L5" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="M5" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="N5" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="O5" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="P5" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q5" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="R5" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="S5" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="T5" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="U5" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="V5" s="12" t="s">
-        <v>61</v>
+      <c r="V5" s="10" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="12" t="s">
+      <c r="B6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="12" t="s">
+      <c r="G6" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K6" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="L6" s="12" t="s">
+      <c r="L6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="12" t="s">
+      <c r="M6" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="O6" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="P6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="R6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="S6" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="N6" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="O6" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="P6" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q6" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="R6" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="S6" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="T6" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="U6" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="V6" s="12" t="s">
-        <v>38</v>
+      <c r="T6" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="U6" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="V6" s="10" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="O7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="P7" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q7" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="R7" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="S7" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="K7" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="L7" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="M7" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="N7" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="O7" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="P7" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q7" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="R7" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="S7" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="T7" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="U7" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="V7" s="17" t="s">
-        <v>62</v>
+      <c r="T7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="U7" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="V7" s="14" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="12" t="s">
+      <c r="C8" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>36</v>
-      </c>
       <c r="I8" s="5" t="s">
         <v>0</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="K8" s="12" t="s">
+      <c r="K8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="L8" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="M8" s="12" t="s">
+      <c r="L8" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="M8" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="N8" s="12" t="s">
+      <c r="N8" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="O8" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="P8" s="12" t="s">
+      <c r="O8" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="P8" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="Q8" s="12" t="s">
+      <c r="Q8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="R8" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="S8" s="12" t="s">
+      <c r="R8" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="S8" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="T8" s="17" t="s">
+      <c r="T8" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="U8" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="V8" s="14" t="s">
         <v>59</v>
-      </c>
-      <c r="U8" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="V8" s="17" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1360,10 +1356,10 @@
       <c r="D9" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" s="14" t="s">
+      <c r="E9" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="12" t="s">
         <v>0</v>
       </c>
       <c r="G9" s="5" t="s">
@@ -1375,7 +1371,7 @@
       <c r="I9" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="J9" s="8" t="s">
         <v>0</v>
       </c>
       <c r="K9" s="4" t="s">
@@ -1387,99 +1383,99 @@
       <c r="M9" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="N9" s="12" t="s">
+      <c r="N9" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="O9" s="12" t="s">
-        <v>50</v>
+      <c r="O9" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="P9" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="Q9" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="R9" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="S9" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="T9" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="U9" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="V9" s="12" t="s">
-        <v>59</v>
+      <c r="Q9" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="R9" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="S9" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="T9" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="U9" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="V9" s="10" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="I10" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="J10" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="K10" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="L10" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="M10" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="N10" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="O10" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="P10" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="R10" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="S10" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="T10" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="U10" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="V10" s="18" t="s">
+      <c r="B10" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="L10" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="M10" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="N10" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="O10" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="P10" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="R10" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="S10" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="T10" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="U10" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="V10" s="15" t="s">
         <v>0</v>
       </c>
     </row>
